--- a/Documents/Diagrammes/Diagramme_Pert.xlsx
+++ b/Documents/Diagrammes/Diagramme_Pert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
   <si>
     <t>Numéro de tache</t>
   </si>
@@ -81,9 +81,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>Recherche sur les techniques pour déployer le site en intranet</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>Recherche sur les technologies à développer</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -105,18 +99,12 @@
     <t>M</t>
   </si>
   <si>
-    <t>Test des écrans pour la Gestion (interface)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Module de Gestion des expositions (développer les fonctionnalités)</t>
   </si>
   <si>
-    <t>G, K, L</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>Module de diffusion de contenu (développer les fonctionnalités)</t>
   </si>
   <si>
-    <t>G, K, P</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -159,29 +144,80 @@
     <t>Assemblage des différents modules ensemble</t>
   </si>
   <si>
-    <t>N, R</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>Test de l'application final</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Total :</t>
   </si>
   <si>
-    <t>Déploiement de l'application final sur le serveur</t>
+    <t>A, D, C</t>
+  </si>
+  <si>
+    <t>Test des écrans pour la Gestion (interface, responsive)</t>
+  </si>
+  <si>
+    <t>K, F</t>
+  </si>
+  <si>
+    <t>O, F</t>
+  </si>
+  <si>
+    <t>Q, M</t>
+  </si>
+  <si>
+    <t>Déploiement de l'application finale sur le serveur</t>
+  </si>
+  <si>
+    <t>I, S</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Nv1</t>
+  </si>
+  <si>
+    <t>Nv2</t>
+  </si>
+  <si>
+    <t>Nv3</t>
+  </si>
+  <si>
+    <t>Nv4</t>
+  </si>
+  <si>
+    <t>Nv5</t>
+  </si>
+  <si>
+    <t>Nv6</t>
+  </si>
+  <si>
+    <t>Nv7</t>
+  </si>
+  <si>
+    <t>Nv8</t>
+  </si>
+  <si>
+    <t>Nv9</t>
+  </si>
+  <si>
+    <t>Nv10</t>
+  </si>
+  <si>
+    <t>Nv11</t>
+  </si>
+  <si>
+    <t>Nv12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +249,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -309,17 +369,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -328,13 +388,73 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -348,8 +468,83 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -357,72 +552,436 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1831975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Image 50" descr="diagramme_Pert.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43002200" y="1917700"/>
+          <a:ext cx="10887075" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="AC1:AL21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="AC1:AL21"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Colonne1" dataDxfId="10"/>
+    <tableColumn id="2" name="Nv1" dataDxfId="9"/>
+    <tableColumn id="3" name="Nv2" dataDxfId="8"/>
+    <tableColumn id="4" name="Nv3" dataDxfId="7"/>
+    <tableColumn id="5" name="Nv4" dataDxfId="6"/>
+    <tableColumn id="6" name="Nv5" dataDxfId="5"/>
+    <tableColumn id="7" name="Nv6" dataDxfId="4"/>
+    <tableColumn id="8" name="Nv7" dataDxfId="3"/>
+    <tableColumn id="9" name="Nv8" dataDxfId="2"/>
+    <tableColumn id="10" name="Nv9" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="AM1:AO21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="AM1:AO21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Nv10"/>
+    <tableColumn id="2" name="Nv11"/>
+    <tableColumn id="3" name="Nv12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.28515625" defaultRowHeight="24.95" customHeight="1"/>
@@ -723,107 +1282,156 @@
     <col min="3" max="3" width="66.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="7" max="29" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="27" width="10.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="23" customWidth="1"/>
+    <col min="30" max="30" width="15" style="24" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="24" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="24" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="24" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" style="24" customWidth="1"/>
+    <col min="35" max="35" width="15" style="24" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" style="24" customWidth="1"/>
+    <col min="37" max="37" width="14.28515625" style="24" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="24" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" customWidth="1"/>
+    <col min="42" max="42" width="35.28515625" customWidth="1"/>
+    <col min="43" max="43" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>50</v>
+      <c r="AC1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="E2" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -842,29 +1450,46 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="12"/>
+      <c r="AA2" s="19"/>
+      <c r="AC2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="29"/>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="17"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -882,30 +1507,47 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="12"/>
+      <c r="AA3" s="19"/>
+      <c r="AC3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="29"/>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A4"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="17"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -922,31 +1564,48 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="12"/>
+      <c r="AA4" s="19"/>
+      <c r="AC4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="29"/>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="5" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A5"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -962,32 +1621,49 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="12"/>
+      <c r="AA5" s="19"/>
+      <c r="AC5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="29"/>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A6"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="H6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1002,33 +1678,50 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="12"/>
+      <c r="AA6" s="19"/>
+      <c r="AC6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="29"/>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="17"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1042,34 +1735,53 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="12"/>
+      <c r="AA7" s="19"/>
+      <c r="AC7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="29"/>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A8"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1082,35 +1794,52 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="12"/>
+      <c r="AA8" s="19"/>
+      <c r="AC8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="29"/>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A9"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="17"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1122,36 +1851,53 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="12"/>
+      <c r="AA9" s="19"/>
+      <c r="AC9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="29"/>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1162,37 +1908,54 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="12"/>
+      <c r="AA10" s="19"/>
+      <c r="AC10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="29"/>
     </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A11"/>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1202,38 +1965,55 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="12"/>
+      <c r="AA11" s="19"/>
+      <c r="AC11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="29"/>
     </row>
-    <row r="12" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A12"/>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="7">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="17"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1242,39 +2022,58 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="12"/>
+      <c r="AA12" s="19"/>
+      <c r="AC12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="29"/>
     </row>
-    <row r="13" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A13"/>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="17"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -1282,424 +2081,559 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="12"/>
+      <c r="AA13" s="19"/>
+      <c r="AC13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="29"/>
     </row>
-    <row r="14" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A14"/>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
+      <c r="B14" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="17"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="12"/>
+      <c r="AA14" s="19"/>
+      <c r="AC14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="29"/>
     </row>
-    <row r="15" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A15"/>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="12"/>
+      <c r="AA15" s="19"/>
+      <c r="AC15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="29"/>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A16"/>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="17"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="12"/>
+      <c r="AA16" s="19"/>
+      <c r="AC16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="29"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A17"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="17"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="12"/>
+      <c r="AA17" s="19"/>
+      <c r="AC17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="29"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A18"/>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" s="17"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="12"/>
+      <c r="AA18" s="19"/>
+      <c r="AC18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="29"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A19"/>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="19"/>
+      <c r="AC19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="29"/>
+    </row>
+    <row r="20" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A20"/>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="19"/>
+      <c r="AC20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO20" s="29"/>
+    </row>
+    <row r="21" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A21"/>
+      <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="12"/>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="22"/>
+      <c r="AC21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="32" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A20"/>
-      <c r="B20" s="4" t="s">
+    <row r="22" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="7">
-        <v>5</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="12"/>
+      <c r="E22" s="16">
+        <v>47</v>
+      </c>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
     </row>
-    <row r="21" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A21"/>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="12"/>
+    <row r="23" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
     </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A22"/>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="12"/>
-    </row>
-    <row r="23" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A23"/>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="15"/>
-    </row>
-    <row r="24" spans="1:29" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="1:43" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="19">
-        <v>49</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Documents/Diagrammes/Diagramme_Pert.xlsx
+++ b/Documents/Diagrammes/Diagramme_Pert.xlsx
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+      <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.28515625" defaultRowHeight="24.95" customHeight="1"/>

--- a/Documents/Diagrammes/Diagramme_Pert.xlsx
+++ b/Documents/Diagrammes/Diagramme_Pert.xlsx
@@ -656,22 +656,10 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -890,10 +878,22 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,20 +904,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1831975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1908175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50" descr="diagramme_Pert.png"/>
+        <xdr:cNvPr id="3" name="Image 2" descr="diagramme_Pert.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -930,7 +930,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43002200" y="1917700"/>
+          <a:off x="266700" y="7124700"/>
           <a:ext cx="10887075" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -954,26 +954,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="AC1:AL21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="AC1:AL21" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="AC1:AL21"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Colonne1" dataDxfId="10"/>
-    <tableColumn id="2" name="Nv1" dataDxfId="9"/>
-    <tableColumn id="3" name="Nv2" dataDxfId="8"/>
-    <tableColumn id="4" name="Nv3" dataDxfId="7"/>
-    <tableColumn id="5" name="Nv4" dataDxfId="6"/>
-    <tableColumn id="6" name="Nv5" dataDxfId="5"/>
-    <tableColumn id="7" name="Nv6" dataDxfId="4"/>
-    <tableColumn id="8" name="Nv7" dataDxfId="3"/>
-    <tableColumn id="9" name="Nv8" dataDxfId="2"/>
-    <tableColumn id="10" name="Nv9" dataDxfId="1"/>
+    <tableColumn id="1" name="Colonne1" dataDxfId="11"/>
+    <tableColumn id="2" name="Nv1" dataDxfId="10"/>
+    <tableColumn id="3" name="Nv2" dataDxfId="9"/>
+    <tableColumn id="4" name="Nv3" dataDxfId="8"/>
+    <tableColumn id="5" name="Nv4" dataDxfId="7"/>
+    <tableColumn id="6" name="Nv5" dataDxfId="6"/>
+    <tableColumn id="7" name="Nv6" dataDxfId="5"/>
+    <tableColumn id="8" name="Nv7" dataDxfId="4"/>
+    <tableColumn id="9" name="Nv8" dataDxfId="3"/>
+    <tableColumn id="10" name="Nv9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="AM1:AO21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="AM1:AO21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="AM1:AO21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Nv10"/>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.28515625" defaultRowHeight="24.95" customHeight="1"/>

--- a/Documents/Diagrammes/Diagramme_Pert.xlsx
+++ b/Documents/Diagrammes/Diagramme_Pert.xlsx
@@ -905,15 +905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1908175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,8 +930,56 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="7124700"/>
+          <a:off x="596900" y="8305800"/>
           <a:ext cx="10887075" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="DiagrammePertt_Etap2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12509500" y="8255000"/>
+          <a:ext cx="23174325" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.28515625" defaultRowHeight="24.95" customHeight="1"/>
